--- a/116Docs/JobStatsSprint2BurnupChart.xlsx
+++ b/116Docs/JobStatsSprint2BurnupChart.xlsx
@@ -111,7 +111,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -131,7 +131,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -141,7 +141,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -161,7 +161,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -171,7 +171,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -191,16 +191,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="973919431"/>
-        <c:axId val="2039634701"/>
+        <c:axId val="2059700094"/>
+        <c:axId val="1261828835"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="973919431"/>
+        <c:axId val="2059700094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -232,10 +232,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039634701"/>
+        <c:crossAx val="1261828835"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039634701"/>
+        <c:axId val="1261828835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,7 +283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="973919431"/>
+        <c:crossAx val="2059700094"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
